--- a/biology/Médecine/Centre_hospitalier_psychiatrique_du_Chêne_aux_Haies/Centre_hospitalier_psychiatrique_du_Chêne_aux_Haies.xlsx
+++ b/biology/Médecine/Centre_hospitalier_psychiatrique_du_Chêne_aux_Haies/Centre_hospitalier_psychiatrique_du_Chêne_aux_Haies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_psychiatrique_du_Ch%C3%AAne_aux_Haies</t>
+          <t>Centre_hospitalier_psychiatrique_du_Chêne_aux_Haies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre hospitalier psychiatrique du Chêne aux Haies est un hôpital psychiatrique belge situé à Mons en province de Hainaut. Il fait partie de l'intercommunale « Centre Hospitalier Universitaire et Psychiatrique de Mons-Borinage » qui comprend également le CHU Ambroise Paré[1].
-Cet hôpital public est doté d’une capacité de 375 lits, de 70 places d'hospitalisation et également de 90 lits de Maisons de Soins Psychiatriques[2]. 
-Le CHP emploie 485 personnes[1].
+Le Centre hospitalier psychiatrique du Chêne aux Haies est un hôpital psychiatrique belge situé à Mons en province de Hainaut. Il fait partie de l'intercommunale « Centre Hospitalier Universitaire et Psychiatrique de Mons-Borinage » qui comprend également le CHU Ambroise Paré.
+Cet hôpital public est doté d’une capacité de 375 lits, de 70 places d'hospitalisation et également de 90 lits de Maisons de Soins Psychiatriques. 
+Le CHP emploie 485 personnes.
 </t>
         </is>
       </c>
